--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383269.5528422362</v>
+        <v>381381.9713258343</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>324.3687384568619</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.7918499079223</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>122.2073444116541</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>184.7288727985215</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>134.3090400691497</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>15.91242278797865</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>107.0219443069636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>270.566018110871</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>123.8167699816754</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.21850068608578</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>88.9156920245631</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>67.08991894886675</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>156.1597139990906</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>111.8508996147491</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.26947999741166</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.8952567231516</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>212.9745759966891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>157.1858536284185</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.8325623143398</v>
+        <v>57.67344900373826</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463158</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463132</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>541.9996489349448</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>535.0541481857414</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656313</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656313</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W2" t="n">
-        <v>2337.536952213968</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X2" t="n">
-        <v>2337.536952213968</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,7 +4428,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>400.9492795830859</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>394.0037788338824</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.721608616769</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1954.952953346655</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346655</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.21241430279</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.249897362378</v>
+        <v>1667.923377516245</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1309.657678909495</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>282.5355983135319</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>113.599415385625</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>113.599415385625</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1409.102440230061</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.973801443619</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>865.2893132377322</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>575.8721432007717</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="X13" t="n">
-        <v>575.8721432007717</v>
+        <v>503.328177457062</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>282.5355983135319</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>484.0375086983737</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>315.1013257704668</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>164.9846863581311</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>164.9846863581311</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>164.9846863581311</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655741</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X16" t="n">
-        <v>597.1575173830407</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.1575173830407</v>
+        <v>665.6859735286134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>510.7324460062431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>510.7324460062431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>360.6158065939073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>360.6158065939073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345002</v>
+        <v>241.9805482336709</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.3809108364828</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.7169704793945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>591.7807875514876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>591.7807875514876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>443.8676939690945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>296.9777464711841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>128.8024247910047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229246</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793945</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429513</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>428.9821957028613</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X25" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.067577596073</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>974.3830893901859</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>974.3830893901859</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>746.3935384921685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.460363022717</v>
+        <v>546.3081347216938</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761807</v>
+        <v>433.1328170751577</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452158</v>
+        <v>338.7770429441929</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441934</v>
+        <v>338.7770429441929</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386967</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220502</v>
+        <v>730.4517433652478</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.460363022717</v>
+        <v>672.1957342705626</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982975</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7087,19 +7087,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,7 +7129,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,16 +7330,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7421,40 +7421,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.2154619604834</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6318690338261</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.40364951451083</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>69.54994138994655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>33.57014840818211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>117.6443483701245</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542578</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>73.54842233990189</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338542</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
-        <v>129.0514987701588</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.54883440919795</v>
+        <v>105.7079477197994</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.629008122312371e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.247790167</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312823.247790167</v>
+      </c>
+      <c r="G2" t="n">
         <v>312823.2477901669</v>
       </c>
-      <c r="F2" t="n">
-        <v>312823.2477901669</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>312823.2477901668</v>
+      </c>
+      <c r="I2" t="n">
         <v>312823.247790167</v>
       </c>
-      <c r="H2" t="n">
-        <v>312823.2477901669</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312823.2477901668</v>
-      </c>
       <c r="J2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="K2" t="n">
         <v>325457.7098762157</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457133</v>
@@ -26350,7 +26350,7 @@
         <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="P2" t="n">
         <v>328416.7079457135</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007468</v>
+        <v>7916.731656007479</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732803</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
@@ -26454,7 +26454,7 @@
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-492327.2980481616</v>
       </c>
       <c r="C6" t="n">
-        <v>97640.58116638305</v>
+        <v>97640.58116638314</v>
       </c>
       <c r="D6" t="n">
-        <v>97640.58116638291</v>
+        <v>97640.58116638302</v>
       </c>
       <c r="E6" t="n">
-        <v>-312240.8462914533</v>
+        <v>-312338.3054174254</v>
       </c>
       <c r="F6" t="n">
-        <v>212919.1901854427</v>
+        <v>212821.7310594708</v>
       </c>
       <c r="G6" t="n">
-        <v>212919.190185443</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="H6" t="n">
-        <v>212919.1901854428</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="I6" t="n">
-        <v>212919.1901854427</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="J6" t="n">
-        <v>36495.97099284989</v>
+        <v>36398.51186687792</v>
       </c>
       <c r="K6" t="n">
-        <v>158585.5418729433</v>
+        <v>158567.0481350088</v>
       </c>
       <c r="L6" t="n">
-        <v>190023.1764274932</v>
+        <v>190023.1764274928</v>
       </c>
       <c r="M6" t="n">
-        <v>65565.06799452279</v>
+        <v>65565.06799452266</v>
       </c>
       <c r="N6" t="n">
         <v>200366.0832283602</v>
       </c>
       <c r="O6" t="n">
-        <v>200366.0832283602</v>
+        <v>200366.0832283598</v>
       </c>
       <c r="P6" t="n">
-        <v>156203.4779255145</v>
+        <v>156203.4779255144</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>89.41543156393311</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.4491188094907</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>164.315653924937</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>229.0552972222735</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>193.4432184009852</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>196.2331161620403</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>247.6610973137193</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>111.3643519613908</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>43.49303227737552</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382562</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,13 +37233,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,13 +37470,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
